--- a/src/test/resources/TestData/Honeywell/HoneyWellLinks.xlsx
+++ b/src/test/resources/TestData/Honeywell/HoneyWellLinks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pamsvc_mkoppanadam\Documents\HoT-digital\src\test\resources\TestData\Honeywell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D484E0F-1AFE-44DD-B801-D906368C67B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F2EB31-5F95-4E7A-8AC3-9F9CB3C47D68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="2460" windowWidth="15255" windowHeight="6120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>DataSet</t>
   </si>
@@ -70,6 +70,36 @@
   </si>
   <si>
     <t>HeaderLinksShops</t>
+  </si>
+  <si>
+    <t>FAQs</t>
+  </si>
+  <si>
+    <t>ProductSupport</t>
+  </si>
+  <si>
+    <t>WarrantyRegistration</t>
+  </si>
+  <si>
+    <t>OrderStatus</t>
+  </si>
+  <si>
+    <t>Support &amp; FAQs Page - Honeywell</t>
+  </si>
+  <si>
+    <t>Warranty Registration</t>
+  </si>
+  <si>
+    <t>Orders and Returns</t>
+  </si>
+  <si>
+    <t>HeaderLinksLearn</t>
+  </si>
+  <si>
+    <t>Air Purifiers,Fans,Heaters,Humidifiers</t>
+  </si>
+  <si>
+    <t>HeaderLinksSupport</t>
   </si>
 </sst>
 </file>
@@ -394,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,10 +438,13 @@
     <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,10 +464,22 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -453,13 +498,41 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/Honeywell/HoneyWellLinks.xlsx
+++ b/src/test/resources/TestData/Honeywell/HoneyWellLinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pamsvc_mkoppanadam\Documents\HoT-digital\src\test\resources\TestData\Honeywell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F2EB31-5F95-4E7A-8AC3-9F9CB3C47D68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D96692C-16CF-4780-951E-030BFDD55219}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>DataSet</t>
   </si>
@@ -100,6 +100,27 @@
   </si>
   <si>
     <t>HeaderLinksSupport</t>
+  </si>
+  <si>
+    <t>FooterLink</t>
+  </si>
+  <si>
+    <t>Air Purifiers,Fans,Heaters,Humidifiers,Filters</t>
+  </si>
+  <si>
+    <t>Our Company,Our History,Blog,Careers</t>
+  </si>
+  <si>
+    <t>PUR,Braun,Vicks Humidifiers</t>
+  </si>
+  <si>
+    <t>footerLinkShop</t>
+  </si>
+  <si>
+    <t>footerLinkAboutUs</t>
+  </si>
+  <si>
+    <t>footerLinkHelenoftroyfamily</t>
   </si>
 </sst>
 </file>
@@ -424,15 +445,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
@@ -441,10 +462,10 @@
     <col min="7" max="8" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="54.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,8 +499,11 @@
       <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -511,15 +535,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -527,12 +554,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="K5" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/Honeywell/HoneyWellLinks.xlsx
+++ b/src/test/resources/TestData/Honeywell/HoneyWellLinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pamsvc_mkoppanadam\Documents\HoT-digital\src\test\resources\TestData\Honeywell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D96692C-16CF-4780-951E-030BFDD55219}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F2EB31-5F95-4E7A-8AC3-9F9CB3C47D68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>DataSet</t>
   </si>
@@ -100,27 +100,6 @@
   </si>
   <si>
     <t>HeaderLinksSupport</t>
-  </si>
-  <si>
-    <t>FooterLink</t>
-  </si>
-  <si>
-    <t>Air Purifiers,Fans,Heaters,Humidifiers,Filters</t>
-  </si>
-  <si>
-    <t>Our Company,Our History,Blog,Careers</t>
-  </si>
-  <si>
-    <t>PUR,Braun,Vicks Humidifiers</t>
-  </si>
-  <si>
-    <t>footerLinkShop</t>
-  </si>
-  <si>
-    <t>footerLinkAboutUs</t>
-  </si>
-  <si>
-    <t>footerLinkHelenoftroyfamily</t>
   </si>
 </sst>
 </file>
@@ -445,15 +424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
@@ -462,10 +441,10 @@
     <col min="7" max="8" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,11 +478,8 @@
       <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -535,18 +511,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -554,36 +527,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="K5" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
